--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuruKrishna\git\FakeDataCreate\FakeDataCreate\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA246D8B-EABF-44EF-8413-D21F02318FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC8260-B3BC-4399-B8AF-D26F136D913B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -46,18 +46,12 @@
     <t>havechar</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>NoOfData</t>
   </si>
   <si>
     <t>Type_Of_Data</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>isSuffleRequired</t>
   </si>
   <si>
@@ -65,13 +59,49 @@
   </si>
   <si>
     <t>1000</t>
+  </si>
+  <si>
+    <t>Name_Of_File</t>
+  </si>
+  <si>
+    <t>Mandetory_Files</t>
+  </si>
+  <si>
+    <t>Optional_Files</t>
+  </si>
+  <si>
+    <t>Only_Generate_Mandetory_Files</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Mandetory</t>
+  </si>
+  <si>
+    <t>InValidNameFilesInclude</t>
+  </si>
+  <si>
+    <t>MandetoryFiles</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Contract|Instrument|CounterParty|ControlFile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +112,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -102,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,18 +169,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +485,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,84 +502,108 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -531,6 +618,17 @@
       <c r="B17" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{35BA4643-0BE6-4DA3-A616-2A7639C5A105}">
+      <formula1>"Valid,Invalid"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B12 B3:B8" xr:uid="{C5C61E9C-0E3E-49C2-869F-869CAE4F5ACC}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{E1DC10D7-6DFA-4596-9793-99FDF81D8328}">
+      <formula1>"Mandetory,Optional,Both"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -538,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +648,16 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="26.140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuruKrishna\git\FakeDataCreate\FakeDataCreate\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FC8260-B3BC-4399-B8AF-D26F136D913B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22368588-F6B0-43E3-8446-246F96EFAF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -64,37 +64,31 @@
     <t>Name_Of_File</t>
   </si>
   <si>
-    <t>Mandetory_Files</t>
-  </si>
-  <si>
-    <t>Optional_Files</t>
-  </si>
-  <si>
     <t>Only_Generate_Mandetory_Files</t>
   </si>
   <si>
+    <t>Valid</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Mandetory</t>
+    <t>Optional</t>
   </si>
   <si>
     <t>InValidNameFilesInclude</t>
   </si>
   <si>
-    <t>MandetoryFiles</t>
-  </si>
-  <si>
     <t>Attributes</t>
   </si>
   <si>
     <t>Values</t>
   </si>
   <si>
-    <t>Contract|Instrument|CounterParty|ControlFile</t>
+    <t>This is Applicable when Name of File is Valid.</t>
+  </si>
+  <si>
+    <t>This is Applicable when Name of File is Invalid.</t>
   </si>
 </sst>
 </file>
@@ -146,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,22 +163,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -199,9 +182,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,18 +462,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -509,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -517,7 +498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -525,15 +506,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -541,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -549,7 +530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -557,75 +538,61 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{35BA4643-0BE6-4DA3-A616-2A7639C5A105}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10" xr:uid="{35BA4643-0BE6-4DA3-A616-2A7639C5A105}">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B12 B3:B8" xr:uid="{C5C61E9C-0E3E-49C2-869F-869CAE4F5ACC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11" xr:uid="{C5C61E9C-0E3E-49C2-869F-869CAE4F5ACC}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{E1DC10D7-6DFA-4596-9793-99FDF81D8328}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{E1DC10D7-6DFA-4596-9793-99FDF81D8328}">
       <formula1>"Mandetory,Optional,Both"</formula1>
     </dataValidation>
   </dataValidations>
@@ -651,10 +618,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuruKrishna\git\FakeDataCreate\FakeDataCreate\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22368588-F6B0-43E3-8446-246F96EFAF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D7558-AAF9-4DAE-AB77-7EA660B9A44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -177,11 +183,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +475,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +493,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -491,7 +501,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -499,7 +509,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -507,7 +517,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -515,7 +525,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -523,7 +533,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -531,7 +541,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -542,15 +552,15 @@
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
@@ -558,10 +568,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuruKrishna\git\FakeDataCreate\FakeDataCreate\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8D7558-AAF9-4DAE-AB77-7EA660B9A44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9328512F-E7AA-4A67-AAC2-8DC696AC1CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuruKrishna\git\FakeDataCreate\FakeDataCreate\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9328512F-E7AA-4A67-AAC2-8DC696AC1CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1FC99-E982-4BF0-9D30-2577BB982F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
     <sheet name="MasterData" sheetId="1" r:id="rId2"/>
+    <sheet name="Reporting_EntityId" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="300">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -67,35 +68,872 @@
     <t>Only_Generate_Mandetory_Files</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>InValidNameFilesInclude</t>
+  </si>
+  <si>
+    <t>This is Applicable when Name of File is Valid.</t>
+  </si>
+  <si>
+    <t>This is Applicable when Name of File is Invalid.</t>
+  </si>
+  <si>
+    <t>ReportingEntityId</t>
+  </si>
+  <si>
+    <t>ContractId</t>
+  </si>
+  <si>
+    <t>InstrumentId</t>
+  </si>
+  <si>
+    <t>CounterpartyId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>dateOfBirth/Incoporation</t>
+  </si>
+  <si>
+    <t>caste</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>din</t>
+  </si>
+  <si>
+    <t>cin</t>
+  </si>
+  <si>
+    <t>lei</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>gstin</t>
+  </si>
+  <si>
+    <t>udyogAadhaar</t>
+  </si>
+  <si>
+    <t>typeOfOrganisation</t>
+  </si>
+  <si>
+    <t>borrowerCategory</t>
+  </si>
+  <si>
+    <t>nicCode</t>
+  </si>
+  <si>
+    <t>occupationCode</t>
+  </si>
+  <si>
+    <t>addressLine1</t>
+  </si>
+  <si>
+    <t>pinCode</t>
+  </si>
+  <si>
+    <t>stateCode</t>
+  </si>
+  <si>
+    <t>districtCode</t>
+  </si>
+  <si>
+    <t>countryCode</t>
+  </si>
+  <si>
+    <t>telephoneNumber</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>statusOfInsolvencyProceedings</t>
+  </si>
+  <si>
+    <t>dateOfInitiationOfInsolvencyProceedings</t>
+  </si>
+  <si>
+    <t>wilfulDefaulter</t>
+  </si>
+  <si>
+    <t>dateOfWilfulDefaulterClassfication</t>
+  </si>
+  <si>
+    <t>nonCooperativeBorrower</t>
+  </si>
+  <si>
+    <t>dateOfNonCooperativeBorrowerClassification</t>
+  </si>
+  <si>
+    <t>fradulentActivity</t>
+  </si>
+  <si>
+    <t>dateOfFradulentActivityClassification</t>
+  </si>
+  <si>
+    <t>internalRating</t>
+  </si>
+  <si>
+    <t>dateOfInternalRating</t>
+  </si>
+  <si>
+    <t>ratingID</t>
+  </si>
+  <si>
+    <t>creditRating</t>
+  </si>
+  <si>
+    <t>assessmentAgencyAuthority</t>
+  </si>
+  <si>
+    <t>creditRatingAsOn</t>
+  </si>
+  <si>
+    <t>creditRatingExpiryDate</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>relatedCounterpartyID</t>
+  </si>
+  <si>
+    <t>branchCode</t>
+  </si>
+  <si>
+    <t>districtOfUtilisation</t>
+  </si>
+  <si>
+    <t>instrumentType</t>
+  </si>
+  <si>
+    <t>prioritySector</t>
+  </si>
+  <si>
+    <t>weakerSection</t>
+  </si>
+  <si>
+    <t>classificationOfActivity</t>
+  </si>
+  <si>
+    <t>sanctionedDate</t>
+  </si>
+  <si>
+    <t>disbursementDate</t>
+  </si>
+  <si>
+    <t>maturityDate</t>
+  </si>
+  <si>
+    <t>currencyCode</t>
+  </si>
+  <si>
+    <t>originalSanctionAmount</t>
+  </si>
+  <si>
+    <t>syndicatedContractID</t>
+  </si>
+  <si>
+    <t>Interest Rate Type</t>
+  </si>
+  <si>
+    <t>amortisationType</t>
+  </si>
+  <si>
+    <t>Payment Frequency</t>
+  </si>
+  <si>
+    <t>interestRate</t>
+  </si>
+  <si>
+    <t>Weighted Average Interest Rate</t>
+  </si>
+  <si>
+    <t>Installment Amount</t>
+  </si>
+  <si>
+    <t>Balance Outstanding</t>
+  </si>
+  <si>
+    <t>Unavailed Amount</t>
+  </si>
+  <si>
+    <t>offBalanceSheetNominalAmount</t>
+  </si>
+  <si>
+    <t>creditEquivalentOffBalanceSheetNominalAmount</t>
+  </si>
+  <si>
+    <t>accruedInterest</t>
+  </si>
+  <si>
+    <t>amountOverdue</t>
+  </si>
+  <si>
+    <t>Number of days past due</t>
+  </si>
+  <si>
+    <t>SMA category</t>
+  </si>
+  <si>
+    <t>SMA current category since date</t>
+  </si>
+  <si>
+    <t>npaCategroyCode</t>
+  </si>
+  <si>
+    <t>NPA since date</t>
+  </si>
+  <si>
+    <t>Cumulative recoveries since NPA</t>
+  </si>
+  <si>
+    <t>Accumulated provisions</t>
+  </si>
+  <si>
+    <t>Accumulated write-offs</t>
+  </si>
+  <si>
+    <t>settlementAmount</t>
+  </si>
+  <si>
+    <t>Restructuring status</t>
+  </si>
+  <si>
+    <t>accountStatus</t>
+  </si>
+  <si>
+    <t>statusDate</t>
+  </si>
+  <si>
+    <t>suitFiledDate</t>
+  </si>
+  <si>
+    <t>protectionId</t>
+  </si>
+  <si>
+    <t>protectionProviderId</t>
+  </si>
+  <si>
+    <t>typeOfProtection</t>
+  </si>
+  <si>
+    <t>currencyType</t>
+  </si>
+  <si>
+    <t>protectionValue</t>
+  </si>
+  <si>
+    <t>Type Of Protection Value</t>
+  </si>
+  <si>
+    <t>Protection Valuation Approach</t>
+  </si>
+  <si>
+    <t>Date of protection value</t>
+  </si>
+  <si>
+    <t>originalProtectionValue</t>
+  </si>
+  <si>
+    <t>Date Of OriginalProtectionValue</t>
+  </si>
+  <si>
+    <t>Protection Registry Id</t>
+  </si>
+  <si>
+    <t>Protection External Id</t>
+  </si>
+  <si>
+    <t>Protection Allocated Value</t>
+  </si>
+  <si>
+    <t>chargeType</t>
+  </si>
+  <si>
+    <t>Recourse</t>
+  </si>
+  <si>
+    <t>BatchFileUniqueId</t>
+  </si>
+  <si>
+    <t>SubmissionType</t>
+  </si>
+  <si>
+    <t>SubmissionDateTime</t>
+  </si>
+  <si>
+    <t>ReportingDateTime</t>
+  </si>
+  <si>
+    <t>totalNoOfInstruments</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>3|4|5|9</t>
+  </si>
+  <si>
+    <t>SC|ST|OBC|MBC|ND|GEN </t>
+  </si>
+  <si>
+    <t>Hindu|Muslim|Christian|Zoroastrian|Buddhist|Sikh|Jain|Neo Buddhist|ND|Others in case of natural persons </t>
+  </si>
+  <si>
+    <t>2-digit numeric code</t>
+  </si>
+  <si>
+    <t>Y|N </t>
+  </si>
+  <si>
+    <t>4-digit code</t>
+  </si>
+  <si>
+    <t>Fixed|Floating|Mixed</t>
+  </si>
+  <si>
+    <t>French|German|Fixed|Bullet|Other</t>
+  </si>
+  <si>
+    <t>Weekly|Monthly|Quarterly|Semi-annual|Annual|Bullet|Zero coupon|Other</t>
+  </si>
+  <si>
+    <t>SMA-0|SMA-1|SMA-2 </t>
+  </si>
+  <si>
+    <t>Sub-standard|Doubtful &lt; 1|Doubtful 1-3|Doubtful &gt; 3|Loss </t>
+  </si>
+  <si>
+    <t>Restructured due to Non-Performance| Restructured due to Natural Calamity|Others</t>
+  </si>
+  <si>
+    <t>3-digit code assigned for security type as per master file. Gold|Deposits|Securities|Trade receivables|Life insurance policies|Land|Building|other</t>
+  </si>
+  <si>
+    <t>Notional amount|Fair value|Market value|Long-term sustainable value|Other </t>
+  </si>
+  <si>
+    <t>Mark-to-market|Counterparty estimation|Creditor valuation|Third party valuation|Others </t>
+  </si>
+  <si>
+    <t>Primary|Collateral – First|second|third|pari-passu|other </t>
+  </si>
+  <si>
     <t>Valid</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>InValidNameFilesInclude</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
-  <si>
-    <t>This is Applicable when Name of File is Valid.</t>
-  </si>
-  <si>
-    <t>This is Applicable when Name of File is Invalid.</t>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Error Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation Rule </t>
+  </si>
+  <si>
+    <t>Regular Regex Pattern</t>
+  </si>
+  <si>
+    <t>Alphanumeric</t>
+  </si>
+  <si>
+    <t>Fatal</t>
+  </si>
+  <si>
+    <t>ReportingEntityId should be same as Entity ID</t>
+  </si>
+  <si>
+    <t>3|5|4|9</t>
+  </si>
+  <si>
+    <t>Non-Fatal</t>
+  </si>
+  <si>
+    <t>The Name Attribute must contain the full name of the borrower and must have at least one word</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Non-Fatal </t>
+  </si>
+  <si>
+    <t>date Of Birth/Incoporation must not be a future date (must not be a default date such as 1-Jan-1900)</t>
+  </si>
+  <si>
+    <t>YYYYMMdd</t>
+  </si>
+  <si>
+    <t>Enumerate</t>
+  </si>
+  <si>
+    <t>characters are letters (3) {A-Z} ,4th character (1) {List} ,5th character (1) {A-Z} ,next 4 numeric (4){0-9}, last character letter (1) {A-Z}</t>
+  </si>
+  <si>
+    <t>[A-Z]{5}[0-9]{4}[A-Z]{1}</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listing Status - U for unlisted/L for listed(1) ,Industry Code - ROC Industry code (5) {0-9} ,State Code (2) -Char ,Incorporation year - YYYY(4) ,Ownership - PTC (private limited company)/PLC(public limited company), Registration Number (6) {0-9} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOU identification (4) -{0-9} ,Two Reserved Digits(2) - 00 ,Alphanumeric (12) - {A-Z-0-9} ,Random Number(2) - {0-9} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurisdictiopn code (3) - {A-Z} ,Initial name (1) -{A-Z} ,Random number (5) {0-9} ,Alphabet (1) - {A-Z} </t>
+  </si>
+  <si>
+    <t>State code (2) - {max 35) ,PAN number (10) {Apply same rule as PAN validation) ,Registration in state (1) {1-9- A-Z} ,Default digit(1) - Value is Z ,Check code(1) - {0-9}</t>
+  </si>
+  <si>
+    <t>[0-9]{2}[a-zA-Z]{5}[0-9]{4}[a-zA-Z]{1}[1-9A-Za-z]{1}[Z]{1}[0-9a-zA-Z]{1}</t>
+  </si>
+  <si>
+    <t>State Code as per Appendix C from 0-2 should be as per list </t>
+  </si>
+  <si>
+    <t>Validation as per http://mospi.nic.in/sites/default/files/main_menu/national_industrial_classification/nic_2008_17apr09.pdf </t>
+  </si>
+  <si>
+    <t>The first two digits should match the State Code as defined in Appendix B</t>
+  </si>
+  <si>
+    <t>[1-9]{1}[0-9]{2}[0-9]{3}</t>
+  </si>
+  <si>
+    <t>Validate as per the code list in Annexure</t>
+  </si>
+  <si>
+    <t>Validation as per list https://www.iso.org › iso-3166-country-codes </t>
+  </si>
+  <si>
+    <t>The number should be 10-digit number without any special signs </t>
+  </si>
+  <si>
+    <t>((\\+){1}91){1}[1-9]{1}[0-9]{9}</t>
+  </si>
+  <si>
+    <t>The mobile number should be 10-digit number without any special signs and first number should not be 0 </t>
+  </si>
+  <si>
+    <t>[0-9]\\d{2,4}-\\d{6,8}</t>
+  </si>
+  <si>
+    <t>Should contain one “@” symbol and at least one “.” symbol after “@”. The part before the “@” symbol may contain any of the following characters: A-Z, 0-9, ., !, #, $, %, &amp;, ', *, +, -, /, =, ?, ^, _, `, {, |, } and ~. However, when a “.” appears, it must not appear more than once consecutively. The part after the “@” symbol may contain any of the following characters: A-Z, 0-9, . and -. </t>
+  </si>
+  <si>
+    <t>must be on or earlier than the date in the Date Reported in the header Segment</t>
+  </si>
+  <si>
+    <t>ddMMYYYY</t>
+  </si>
+  <si>
+    <t>mandatory field if Willful Defaulter Attribute is present</t>
+  </si>
+  <si>
+    <t>mandatory field if Internal Rating Attribute is present</t>
+  </si>
+  <si>
+    <t>must be on or later than the date in the Date Disbursement Attribute of the Instrument Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Fatal </t>
+  </si>
+  <si>
+    <t>mandatory if Relation Attribute is not blank</t>
+  </si>
+  <si>
+    <t>BRANCH CODE should be validated as per https://dbie.rbi.org.in/DBIE/MOFResultDisplaypager.jsp </t>
+  </si>
+  <si>
+    <t>should be validated as per https://dbie.rbi.org.in/DBIE/MOFResultDisplaypager.jsp </t>
+  </si>
+  <si>
+    <t>mandatory field in case of full file submission</t>
+  </si>
+  <si>
+    <t>CURRENCY CODE should be validated as per https://www.iban.com/currency-codes Important currency codes are INR, USD, GBP, JPY, EUR, AUD, BHD, CAD etc. </t>
+  </si>
+  <si>
+    <t>must be a whole number and is assumed to be positive. Amount is in Indian Rupees</t>
+  </si>
+  <si>
+    <t>should be a valid "Contract id" available in PCR</t>
+  </si>
+  <si>
+    <t>should be reported as numeric value without the percentage sign</t>
+  </si>
+  <si>
+    <t>Maximum number of digits in Weighted Average Interest Rate after the decimal point is 2.</t>
+  </si>
+  <si>
+    <t>This amount must be a whole number and is assumed to be positive. Amount is in Indian Rupees</t>
+  </si>
+  <si>
+    <t>mandatory if Balance outstanding not present</t>
+  </si>
+  <si>
+    <t>mandatory ,If Amount overdue is not blank</t>
+  </si>
+  <si>
+    <t>mandatory field if Protection ID is present</t>
+  </si>
+  <si>
+    <t>mandatory field if Protection Value is present</t>
+  </si>
+  <si>
+    <t>should be a unique ID ,validated against the earlier files submitted by Credit Institutions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00- For Full submission ,01 -Incremental Submission ,02 - Grievance Record Submission </t>
+  </si>
+  <si>
+    <t>submissionDateTime should be valid timestamp and should not be greater than the timestamp of xml file processing </t>
+  </si>
+  <si>
+    <t>same as count of instruments in the credit data file</t>
+  </si>
+  <si>
+    <t>GenerateDataFor</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>reporting_ID</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +963,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +1031,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,11 +1067,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -192,8 +1192,93 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -252,7 +1337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -287,7 +1372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -475,16 +1560,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -500,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -508,7 +1593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -516,15 +1601,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -532,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -540,7 +1625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -548,62 +1633,72 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B10" xr:uid="{35BA4643-0BE6-4DA3-A616-2A7639C5A105}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11" xr:uid="{C5C61E9C-0E3E-49C2-869F-869CAE4F5ACC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{E1DC10D7-6DFA-4596-9793-99FDF81D8328}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Mandetory,Optional,Both"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"Mandatory,Optional,Both"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{1050A27A-A96E-454A-B7F4-0BB47D4A89E2}">
+      <formula1>"Optional,Mandatory,Both"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -613,29 +1708,3296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="20" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="29">
+        <v>9</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="29">
+        <v>36</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="29">
+        <v>21</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="29">
+        <v>15</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D6" s="29">
+        <v>150</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="29">
+        <v>8</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="60">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="29">
+        <v>12</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="45">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="29">
+        <v>10</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="29">
+        <v>8</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="75">
+      <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="29">
+        <v>21</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="45">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="29">
+        <v>20</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="29">
+        <v>10</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="45">
+      <c r="A15" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="33">
+        <v>15</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="33">
+        <v>12</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="33">
+        <v>2</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="33">
+        <v>2</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="39">
+      <c r="A19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="35">
+        <v>5</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="33">
+        <v>5</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="33">
+        <v>100</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="33">
+        <v>6</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="33">
+        <v>2</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="33">
+        <v>3</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="33">
+        <v>3</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="30">
+      <c r="A26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="33">
+        <v>15</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30">
+      <c r="A27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="33">
+        <v>15</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="105">
+      <c r="A28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="33">
+        <v>100</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="33">
+        <v>10</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="30">
+      <c r="A30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="33">
+        <v>8</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="33">
+        <v>1</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="33">
+        <v>8</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="30">
+      <c r="A34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="33">
+        <v>8</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="33">
+        <v>1</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="30">
+      <c r="A36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="33">
+        <v>8</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="33">
+        <v>5</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="30">
+      <c r="A38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="33">
+        <v>8</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="33">
+        <v>20</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="33">
+        <v>15</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="33">
+        <v>20</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="30">
+      <c r="A42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="33">
+        <v>8</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="30">
+      <c r="A43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="33">
+        <v>8</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="33">
+        <v>20</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="33">
+        <v>15</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="26.25">
+      <c r="A46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="33">
+        <v>10</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G46" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="26.25">
+      <c r="A47" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="33">
+        <v>3</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="33">
+        <v>4</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="33">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="33">
+        <v>1</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="33">
+        <v>5</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="30">
+      <c r="A52" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="33">
+        <v>8</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="30">
+      <c r="A53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="33">
+        <v>8</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" ht="30">
+      <c r="A54" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="33">
+        <v>8</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" ht="50.25" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="33">
+        <v>3</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="30">
+      <c r="A56" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="33">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
+      <c r="E56" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="33">
+        <v>15</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:8" ht="30">
+      <c r="A58" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="33">
+        <v>10</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="33">
+        <v>10</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" ht="45">
+      <c r="A60" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="33">
+        <v>12</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="1:8" ht="30">
+      <c r="A61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="33">
+        <v>5</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="30">
+      <c r="A62" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="33">
+        <v>5</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" ht="30">
+      <c r="A63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="33">
+        <v>17</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" ht="30">
+      <c r="A64" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="33">
+        <v>17</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="30">
+      <c r="A65" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="42">
+        <v>17</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="42">
+        <v>17</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" ht="30">
+      <c r="A67" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="42">
+        <v>17</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" ht="30">
+      <c r="A68" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="33">
+        <v>17</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" ht="30">
+      <c r="A69" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="33">
+        <v>17</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="33">
+        <v>5</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="33">
+        <v>3</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="33">
+        <v>8</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" ht="30">
+      <c r="A73" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="33">
+        <v>4</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="33">
+        <v>8</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" ht="30">
+      <c r="A75" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="33">
+        <v>17</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" ht="30">
+      <c r="A76" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="33">
+        <v>17</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G76" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8" ht="30">
+      <c r="A77" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="33">
+        <v>17</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" ht="30">
+      <c r="A78" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="33">
+        <v>17</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" ht="45">
+      <c r="A79" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="33">
+        <v>50</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="33">
+        <v>3</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" ht="30">
+      <c r="A81" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="33">
+        <v>8</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8" ht="30">
+      <c r="A82" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="33">
+        <v>8</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="33">
+        <v>15</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="23"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="33">
+        <v>15</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="33">
+        <v>3</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="33">
+        <v>3</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8" ht="75.75" customHeight="1">
+      <c r="A87" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="33">
+        <v>17</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8" ht="45">
+      <c r="A88" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="33">
+        <v>50</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8" ht="45">
+      <c r="A89" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="33">
+        <v>50</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8" ht="30">
+      <c r="A90" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="33">
+        <v>8</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8" ht="30">
+      <c r="A91" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="33">
+        <v>17</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G91" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8" ht="30">
+      <c r="A92" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="33">
+        <v>8</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="33">
+        <v>15</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="33">
+        <v>50</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8" ht="30">
+      <c r="A95" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="33">
+        <v>17</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8" ht="30">
+      <c r="A96" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="33">
+        <v>25</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="33">
+        <v>1</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" s="23"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8" ht="30">
+      <c r="A98" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="33">
+        <v>3</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G98" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="1:8" ht="30">
+      <c r="A99" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="33">
+        <v>3</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="1:8" ht="45">
+      <c r="A100" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="33">
+        <v>3</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H100" s="2"/>
+    </row>
+    <row r="101" spans="1:8" ht="45">
+      <c r="A101" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="33">
+        <v>3</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="33">
+        <v>3</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="16"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="16"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="16"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="16"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="16"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="16"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="16"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="16"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="16"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="16"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="16"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="16"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="16"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="16"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="16"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="2"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="F119" s="23"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="F120" s="23"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="2"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="F121" s="23"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="2"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="F122" s="23"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="2"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="F123" s="23"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="2"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="F124" s="23"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="2"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="F125" s="23"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="F126" s="23"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="2"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="F127" s="23"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="2"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="F128" s="23"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="2"/>
+    </row>
+    <row r="129" spans="6:8">
+      <c r="F129" s="23"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="2"/>
+    </row>
+    <row r="130" spans="6:8">
+      <c r="F130" s="23"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="2"/>
+    </row>
+    <row r="131" spans="6:8">
+      <c r="F131" s="23"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="2"/>
+    </row>
+    <row r="132" spans="6:8">
+      <c r="F132" s="23"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="2"/>
+    </row>
+    <row r="133" spans="6:8">
+      <c r="F133" s="23"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="2"/>
+    </row>
+    <row r="134" spans="6:8">
+      <c r="F134" s="23"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="2"/>
+    </row>
+    <row r="135" spans="6:8">
+      <c r="F135" s="23"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="2"/>
+    </row>
+    <row r="136" spans="6:8">
+      <c r="F136" s="23"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="2"/>
+    </row>
+    <row r="137" spans="6:8">
+      <c r="F137" s="23"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="2"/>
+    </row>
+    <row r="138" spans="6:8">
+      <c r="F138" s="23"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="2"/>
+    </row>
+    <row r="139" spans="6:8">
+      <c r="F139" s="23"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="2"/>
+    </row>
+    <row r="140" spans="6:8">
+      <c r="F140" s="23"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="2"/>
+    </row>
+    <row r="141" spans="6:8">
+      <c r="F141" s="23"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="2"/>
+    </row>
+    <row r="142" spans="6:8">
+      <c r="F142" s="23"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="6:8">
+      <c r="F143" s="23"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="6:8">
+      <c r="F144" s="23"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="6:8">
+      <c r="F145" s="23"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="2"/>
+    </row>
+    <row r="146" spans="6:8">
+      <c r="F146" s="23"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="2"/>
+    </row>
+    <row r="147" spans="6:8">
+      <c r="F147" s="23"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="2"/>
+    </row>
+    <row r="148" spans="6:8">
+      <c r="F148" s="23"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="2"/>
+    </row>
+    <row r="149" spans="6:8">
+      <c r="F149" s="23"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="2"/>
+    </row>
+    <row r="150" spans="6:8">
+      <c r="F150" s="23"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="6:8">
+      <c r="F151" s="23"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="2"/>
+    </row>
+    <row r="152" spans="6:8">
+      <c r="F152" s="23"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="2"/>
+    </row>
+    <row r="153" spans="6:8">
+      <c r="F153" s="23"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="2"/>
+    </row>
+    <row r="154" spans="6:8">
+      <c r="F154" s="23"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="2"/>
+    </row>
+    <row r="155" spans="6:8">
+      <c r="F155" s="23"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="2"/>
+    </row>
+    <row r="156" spans="6:8">
+      <c r="F156" s="23"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="2"/>
+    </row>
+    <row r="157" spans="6:8">
+      <c r="F157" s="23"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="2"/>
+    </row>
+    <row r="158" spans="6:8">
+      <c r="F158" s="23"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="2"/>
+    </row>
+    <row r="159" spans="6:8">
+      <c r="F159" s="23"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="2"/>
+    </row>
+    <row r="160" spans="6:8">
+      <c r="F160" s="23"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="2"/>
+    </row>
+    <row r="161" spans="6:8">
+      <c r="F161" s="23"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="6:8">
+      <c r="F162" s="23"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="6:8">
+      <c r="F163" s="23"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="6:8">
+      <c r="F164" s="23"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="6:8">
+      <c r="F165" s="23"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="6:8">
+      <c r="F166" s="23"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="6:8">
+      <c r="F167" s="23"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="6:8">
+      <c r="F168" s="23"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="6:8">
+      <c r="F169" s="23"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="6:8">
+      <c r="F170" s="23"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="6:8">
+      <c r="F171" s="23"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="6:8">
+      <c r="F172" s="23"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="6:8">
+      <c r="F173" s="23"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="2"/>
+    </row>
+    <row r="174" spans="6:8">
+      <c r="F174" s="23"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="6:8">
+      <c r="F175" s="23"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="6:8">
+      <c r="F176" s="23"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="6:8">
+      <c r="F177" s="23"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="6:8">
+      <c r="F178" s="23"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="2"/>
+    </row>
+    <row r="179" spans="6:8">
+      <c r="F179" s="23"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="2"/>
+    </row>
+    <row r="180" spans="6:8">
+      <c r="F180" s="23"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="2"/>
+    </row>
+    <row r="181" spans="6:8">
+      <c r="F181" s="23"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="2"/>
+    </row>
+    <row r="182" spans="6:8">
+      <c r="F182" s="23"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="2"/>
+    </row>
+    <row r="183" spans="6:8">
+      <c r="F183" s="23"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="6:8">
+      <c r="F184" s="23"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="6:8">
+      <c r="F185" s="23"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="2"/>
+    </row>
+    <row r="186" spans="6:8">
+      <c r="F186" s="23"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="2"/>
+    </row>
+    <row r="187" spans="6:8">
+      <c r="F187" s="23"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="2"/>
+    </row>
+    <row r="188" spans="6:8">
+      <c r="F188" s="23"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="2"/>
+    </row>
+    <row r="189" spans="6:8">
+      <c r="F189" s="23"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="2"/>
+    </row>
+    <row r="190" spans="6:8">
+      <c r="F190" s="23"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="2"/>
+    </row>
+    <row r="191" spans="6:8">
+      <c r="F191" s="23"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="2"/>
+    </row>
+    <row r="192" spans="6:8">
+      <c r="F192" s="23"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="2"/>
+    </row>
+    <row r="193" spans="6:8">
+      <c r="F193" s="23"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="2"/>
+    </row>
+    <row r="194" spans="6:8">
+      <c r="F194" s="23"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="2"/>
+    </row>
+    <row r="195" spans="6:8">
+      <c r="F195" s="23"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="2"/>
+    </row>
+    <row r="196" spans="6:8">
+      <c r="F196" s="23"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="2"/>
+    </row>
+    <row r="197" spans="6:8">
+      <c r="F197" s="23"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="2"/>
+    </row>
+    <row r="198" spans="6:8">
+      <c r="F198" s="23"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="2"/>
+    </row>
+    <row r="199" spans="6:8">
+      <c r="F199" s="23"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="2"/>
+    </row>
+    <row r="200" spans="6:8">
+      <c r="F200" s="23"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="2"/>
+    </row>
+    <row r="201" spans="6:8">
+      <c r="F201" s="23"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="2"/>
+    </row>
+    <row r="202" spans="6:8">
+      <c r="F202" s="23"/>
+      <c r="G202" s="16"/>
+      <c r="H202" s="2"/>
+    </row>
+    <row r="203" spans="6:8">
+      <c r="F203" s="23"/>
+      <c r="G203" s="16"/>
+      <c r="H203" s="2"/>
+    </row>
+    <row r="204" spans="6:8">
+      <c r="F204" s="23"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="2"/>
+    </row>
+    <row r="205" spans="6:8">
+      <c r="F205" s="23"/>
+      <c r="G205" s="16"/>
+      <c r="H205" s="2"/>
+    </row>
+    <row r="206" spans="6:8">
+      <c r="F206" s="23"/>
+    </row>
+    <row r="207" spans="6:8">
+      <c r="F207" s="23"/>
+    </row>
+    <row r="208" spans="6:8">
+      <c r="F208" s="23"/>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="F209" s="23"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="F210" s="23"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="F211" s="23"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="43"/>
+      <c r="B212" s="43"/>
+      <c r="C212" s="43"/>
+      <c r="D212" s="44"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="45"/>
+      <c r="G212" s="43"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G46" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G47" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="G55" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G19" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="47" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="47" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="47" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="47" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="47" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="47" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="47" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="47" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="47" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="47" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="47" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="47" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="47" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="47" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GuruKrishna\git\FakeDataCreate\FakeDataCreate\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1FC99-E982-4BF0-9D30-2577BB982F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16944" windowHeight="4164"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -18,6 +12,7 @@
     <sheet name="Reporting_EntityId" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A7:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="301">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -927,12 +922,15 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>Shuffled_Header</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1277,7 +1275,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1556,17 +1554,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1672,8 +1670,12 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
@@ -1685,19 +1687,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11 B13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Mandetory,Optional,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12">
       <formula1>"Mandatory,Optional,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{1050A27A-A96E-454A-B7F4-0BB47D4A89E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>"Optional,Mandatory,Both"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1707,23 +1709,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="20" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1832,7 +1834,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1900,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="60">
+    <row r="9" spans="1:8" ht="43.2">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="45">
+    <row r="10" spans="1:8" ht="43.2">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +1962,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="75">
+    <row r="12" spans="1:8" ht="72">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="45">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +2002,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
@@ -2020,7 +2022,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="45">
+    <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="11" t="s">
         <v>31</v>
       </c>
@@ -2044,7 +2046,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
@@ -2106,7 +2108,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" ht="39">
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="41.4">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -2164,7 +2166,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="28.8">
       <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
@@ -2232,7 +2234,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="28.8">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>
@@ -2254,7 +2256,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:8" ht="28.8">
       <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="28.8">
       <c r="A27" s="11" t="s">
         <v>43</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="105">
+    <row r="28" spans="1:8" ht="100.8">
       <c r="A28" s="11" t="s">
         <v>44</v>
       </c>
@@ -2342,7 +2344,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="30">
+    <row r="30" spans="1:8" ht="28.8">
       <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
@@ -2430,7 +2432,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="30">
+    <row r="34" spans="1:8" ht="28.8">
       <c r="A34" s="11" t="s">
         <v>50</v>
       </c>
@@ -2474,7 +2476,7 @@
       <c r="G35" s="16"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="30">
+    <row r="36" spans="1:8" ht="28.8">
       <c r="A36" s="11" t="s">
         <v>52</v>
       </c>
@@ -2516,7 +2518,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="30">
+    <row r="38" spans="1:8" ht="28.8">
       <c r="A38" s="11" t="s">
         <v>54</v>
       </c>
@@ -2606,7 +2608,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="30">
+    <row r="42" spans="1:8" ht="28.8">
       <c r="A42" s="11" t="s">
         <v>58</v>
       </c>
@@ -2628,7 +2630,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="30">
+    <row r="43" spans="1:8" ht="28.8">
       <c r="A43" s="11" t="s">
         <v>59</v>
       </c>
@@ -2690,7 +2692,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="26.25">
+    <row r="46" spans="1:8" ht="27.6">
       <c r="A46" s="11" t="s">
         <v>62</v>
       </c>
@@ -2712,7 +2714,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="26.25">
+    <row r="47" spans="1:8" ht="27.6">
       <c r="A47" s="11" t="s">
         <v>63</v>
       </c>
@@ -2830,7 +2832,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="30">
+    <row r="52" spans="1:8" ht="28.8">
       <c r="A52" s="11" t="s">
         <v>68</v>
       </c>
@@ -2852,7 +2854,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="30">
+    <row r="53" spans="1:8" ht="28.8">
       <c r="A53" s="11" t="s">
         <v>69</v>
       </c>
@@ -2874,7 +2876,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:8" ht="28.8">
       <c r="A54" s="11" t="s">
         <v>70</v>
       </c>
@@ -2918,7 +2920,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="28.8">
       <c r="A56" s="11" t="s">
         <v>72</v>
       </c>
@@ -2962,7 +2964,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="30">
+    <row r="58" spans="1:8" ht="28.8">
       <c r="A58" s="11" t="s">
         <v>74</v>
       </c>
@@ -3006,7 +3008,7 @@
       <c r="G59" s="16"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="45">
+    <row r="60" spans="1:8" ht="28.8">
       <c r="A60" s="11" t="s">
         <v>76</v>
       </c>
@@ -3026,7 +3028,7 @@
       <c r="G60" s="16"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="28.8">
       <c r="A61" s="11" t="s">
         <v>77</v>
       </c>
@@ -3048,7 +3050,7 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:8" ht="28.8">
       <c r="A62" s="11" t="s">
         <v>78</v>
       </c>
@@ -3070,7 +3072,7 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="30">
+    <row r="63" spans="1:8" ht="28.8">
       <c r="A63" s="11" t="s">
         <v>79</v>
       </c>
@@ -3092,7 +3094,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:8" ht="28.8">
       <c r="A64" s="13" t="s">
         <v>80</v>
       </c>
@@ -3114,7 +3116,7 @@
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="28.8">
       <c r="A65" s="14" t="s">
         <v>81</v>
       </c>
@@ -3158,7 +3160,7 @@
       </c>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="28.8">
       <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
@@ -3180,7 +3182,7 @@
       </c>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="30">
+    <row r="68" spans="1:8" ht="28.8">
       <c r="A68" s="15" t="s">
         <v>84</v>
       </c>
@@ -3202,7 +3204,7 @@
       </c>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="30">
+    <row r="69" spans="1:8" ht="28.8">
       <c r="A69" s="11" t="s">
         <v>85</v>
       </c>
@@ -3266,7 +3268,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="30">
+    <row r="72" spans="1:8" ht="28.8">
       <c r="A72" s="11" t="s">
         <v>88</v>
       </c>
@@ -3288,7 +3290,7 @@
       </c>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8" ht="28.8">
       <c r="A73" s="11" t="s">
         <v>89</v>
       </c>
@@ -3308,7 +3310,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="30">
+    <row r="74" spans="1:8" ht="28.8">
       <c r="A74" s="11" t="s">
         <v>90</v>
       </c>
@@ -3330,7 +3332,7 @@
       </c>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="30">
+    <row r="75" spans="1:8" ht="28.8">
       <c r="A75" s="11" t="s">
         <v>91</v>
       </c>
@@ -3352,7 +3354,7 @@
       </c>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="30">
+    <row r="76" spans="1:8" ht="28.8">
       <c r="A76" s="11" t="s">
         <v>92</v>
       </c>
@@ -3374,7 +3376,7 @@
       </c>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="30">
+    <row r="77" spans="1:8" ht="28.8">
       <c r="A77" s="11" t="s">
         <v>93</v>
       </c>
@@ -3396,7 +3398,7 @@
       </c>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="30">
+    <row r="78" spans="1:8" ht="28.8">
       <c r="A78" s="11" t="s">
         <v>94</v>
       </c>
@@ -3418,7 +3420,7 @@
       </c>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="45">
+    <row r="79" spans="1:8" ht="43.2">
       <c r="A79" s="11" t="s">
         <v>95</v>
       </c>
@@ -3456,7 +3458,7 @@
       <c r="G80" s="16"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="30">
+    <row r="81" spans="1:8" ht="28.8">
       <c r="A81" s="11" t="s">
         <v>97</v>
       </c>
@@ -3478,7 +3480,7 @@
       </c>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="30">
+    <row r="82" spans="1:8" ht="28.8">
       <c r="A82" s="11" t="s">
         <v>98</v>
       </c>
@@ -3608,7 +3610,7 @@
       </c>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="45">
+    <row r="88" spans="1:8" ht="28.8">
       <c r="A88" s="11" t="s">
         <v>104</v>
       </c>
@@ -3632,7 +3634,7 @@
       </c>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="45">
+    <row r="89" spans="1:8" ht="43.2">
       <c r="A89" s="11" t="s">
         <v>105</v>
       </c>
@@ -3656,7 +3658,7 @@
       </c>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="30">
+    <row r="90" spans="1:8" ht="28.8">
       <c r="A90" s="11" t="s">
         <v>106</v>
       </c>
@@ -3678,7 +3680,7 @@
       </c>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="30">
+    <row r="91" spans="1:8" ht="28.8">
       <c r="A91" s="11" t="s">
         <v>107</v>
       </c>
@@ -3700,7 +3702,7 @@
       </c>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="28.8">
       <c r="A92" s="11" t="s">
         <v>108</v>
       </c>
@@ -3758,7 +3760,7 @@
       <c r="G94" s="16"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="30">
+    <row r="95" spans="1:8" ht="28.8">
       <c r="A95" s="11" t="s">
         <v>111</v>
       </c>
@@ -3780,7 +3782,7 @@
       </c>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="30">
+    <row r="96" spans="1:8" ht="28.8">
       <c r="A96" s="11" t="s">
         <v>112</v>
       </c>
@@ -3820,7 +3822,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="30">
+    <row r="98" spans="1:8" ht="28.8">
       <c r="A98" s="16" t="s">
         <v>114</v>
       </c>
@@ -3838,7 +3840,7 @@
       </c>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" ht="30">
+    <row r="99" spans="1:8" ht="28.8">
       <c r="A99" s="16" t="s">
         <v>115</v>
       </c>
@@ -3856,7 +3858,7 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" ht="45">
+    <row r="100" spans="1:8" ht="28.8">
       <c r="A100" s="16" t="s">
         <v>116</v>
       </c>
@@ -3874,7 +3876,7 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="45">
+    <row r="101" spans="1:8" ht="28.8">
       <c r="A101" s="16" t="s">
         <v>117</v>
       </c>
@@ -4473,10 +4475,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G46" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G47" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="G55" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="G19" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G46" r:id="rId1"/>
+    <hyperlink ref="G47" r:id="rId2"/>
+    <hyperlink ref="G55" r:id="rId3"/>
+    <hyperlink ref="G19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -4484,16 +4486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16944" windowHeight="4164"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16944" windowHeight="4056"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="300">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -919,9 +919,6 @@
   </si>
   <si>
     <t>099</t>
-  </si>
-  <si>
-    <t>Both</t>
   </si>
   <si>
     <t>Shuffled_Header</t>
@@ -1558,7 +1555,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1666,12 +1663,12 @@
         <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>299</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>9</v>

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16944" windowHeight="4056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16944" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Reporting_EntityId" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A7:I18"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="305">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>Name_Of_File</t>
   </si>
   <si>
@@ -922,6 +919,24 @@
   </si>
   <si>
     <t>Shuffled_Header</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>DuplicateFile_generation</t>
+  </si>
+  <si>
+    <t>Number_of_duplicatedata</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>All_Files</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1183,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1270,6 +1285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1552,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1577,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1601,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1630,64 +1646,80 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>198</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+    <row r="15" spans="1:3" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11 B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11 B13 B14 B16">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
@@ -1709,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -1727,69 +1759,69 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="29">
         <v>9</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="29">
         <v>36</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="10"/>
@@ -1797,17 +1829,17 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="29">
         <v>21</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="10"/>
@@ -1815,17 +1847,17 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="29">
         <v>15</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="10"/>
@@ -1833,65 +1865,65 @@
     </row>
     <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="29">
         <v>150</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>147</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>148</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="29">
         <v>8</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="H7" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="29">
         <v>3</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="10"/>
@@ -1899,19 +1931,19 @@
     </row>
     <row r="9" spans="1:8" ht="43.2">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="29">
         <v>12</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="10"/>
@@ -1919,41 +1951,41 @@
     </row>
     <row r="10" spans="1:8" ht="43.2">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="29">
         <v>10</v>
       </c>
       <c r="E10" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>144</v>
-      </c>
       <c r="G10" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="29">
         <v>8</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="10"/>
@@ -1961,125 +1993,125 @@
     </row>
     <row r="12" spans="1:8" ht="72">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="29">
         <v>21</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="29">
         <v>20</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="29">
         <v>10</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="33">
         <v>15</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="33">
         <v>12</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="33">
         <v>2</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="16"/>
@@ -2087,19 +2119,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="33">
         <v>2</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="16"/>
@@ -2107,39 +2139,39 @@
     </row>
     <row r="19" spans="1:8" s="39" customFormat="1" ht="41.4">
       <c r="A19" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="35">
         <v>5</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="33">
         <v>5</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="16"/>
@@ -2147,17 +2179,17 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="33">
         <v>100</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="16"/>
@@ -2165,177 +2197,177 @@
     </row>
     <row r="22" spans="1:8" ht="28.8">
       <c r="A22" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="33">
         <v>6</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="33">
         <v>2</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="33">
         <v>3</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="28.8">
       <c r="A25" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="33">
         <v>3</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="28.8">
       <c r="A26" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="14"/>
       <c r="C26" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="33">
         <v>15</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.8">
       <c r="A27" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="33">
         <v>15</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="100.8">
       <c r="A28" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="33">
         <v>100</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="33">
         <v>10</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="16"/>
@@ -2343,43 +2375,43 @@
     </row>
     <row r="30" spans="1:8" ht="28.8">
       <c r="A30" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="33">
         <v>8</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="40" t="s">
         <v>173</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="33">
         <v>1</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="16"/>
@@ -2387,43 +2419,43 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="33">
         <v>8</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="33">
         <v>1</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="16"/>
@@ -2431,43 +2463,43 @@
     </row>
     <row r="34" spans="1:8" ht="28.8">
       <c r="A34" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="33">
         <v>8</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="33">
         <v>1</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="16"/>
@@ -2475,41 +2507,41 @@
     </row>
     <row r="36" spans="1:8" ht="28.8">
       <c r="A36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="33">
         <v>8</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="33">
         <v>5</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="16"/>
@@ -2517,151 +2549,151 @@
     </row>
     <row r="38" spans="1:8" ht="28.8">
       <c r="A38" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="33">
         <v>8</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="33">
         <v>20</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="14"/>
       <c r="C40" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="33">
         <v>15</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="33">
         <v>20</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="28.8">
       <c r="A42" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="33">
         <v>8</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="28.8">
       <c r="A43" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="33">
         <v>8</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="33">
         <v>20</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="16"/>
@@ -2669,337 +2701,337 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" s="33">
         <v>15</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" ht="27.6">
       <c r="A46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="14"/>
       <c r="C46" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="33">
         <v>10</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" ht="27.6">
       <c r="A47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="33">
         <v>3</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="33">
         <v>4</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="33">
         <v>1</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="33">
         <v>1</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="33">
         <v>5</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" ht="28.8">
       <c r="A52" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="14"/>
       <c r="C52" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="33">
         <v>8</v>
       </c>
       <c r="E52" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G52" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="28.8">
       <c r="A53" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="33">
         <v>8</v>
       </c>
       <c r="E53" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G53" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" ht="28.8">
       <c r="A54" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="33">
         <v>8</v>
       </c>
       <c r="E54" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G54" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:8" ht="50.25" customHeight="1">
       <c r="A55" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="14"/>
       <c r="C55" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" s="33">
         <v>3</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G55" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:8" ht="28.8">
       <c r="A56" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" s="14"/>
       <c r="C56" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="33">
         <v>17</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" s="14"/>
       <c r="C57" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="33">
         <v>15</v>
       </c>
       <c r="E57" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="G57" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:8" ht="28.8">
       <c r="A58" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="33">
         <v>10</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59" s="33">
         <v>10</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F59" s="23"/>
       <c r="G59" s="16"/>
@@ -3007,19 +3039,19 @@
     </row>
     <row r="60" spans="1:8" ht="28.8">
       <c r="A60" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="33">
         <v>12</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F60" s="23"/>
       <c r="G60" s="16"/>
@@ -3027,239 +3059,239 @@
     </row>
     <row r="61" spans="1:8" ht="28.8">
       <c r="A61" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D61" s="33">
         <v>5</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:8" ht="28.8">
       <c r="A62" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="33">
         <v>5</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G62" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:8" ht="28.8">
       <c r="A63" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="33">
         <v>17</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G63" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8" ht="28.8">
       <c r="A64" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D64" s="33">
         <v>17</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="1:8" ht="28.8">
       <c r="A65" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="14"/>
       <c r="C65" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="42">
         <v>17</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G65" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="14"/>
       <c r="C66" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="42">
         <v>17</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="1:8" ht="28.8">
       <c r="A67" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B67" s="14"/>
       <c r="C67" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67" s="42">
         <v>17</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" ht="28.8">
       <c r="A68" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="33">
         <v>17</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G68" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:8" ht="28.8">
       <c r="A69" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69" s="33">
         <v>17</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="33">
         <v>5</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" s="33">
         <v>3</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="16"/>
@@ -3267,41 +3299,41 @@
     </row>
     <row r="72" spans="1:8" ht="28.8">
       <c r="A72" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="14"/>
       <c r="C72" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="33">
         <v>8</v>
       </c>
       <c r="E72" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F72" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G72" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" ht="28.8">
       <c r="A73" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73" s="33">
         <v>4</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F73" s="23"/>
       <c r="G73" s="16"/>
@@ -3309,129 +3341,129 @@
     </row>
     <row r="74" spans="1:8" ht="28.8">
       <c r="A74" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="33">
         <v>8</v>
       </c>
       <c r="E74" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G74" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" ht="28.8">
       <c r="A75" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="33">
         <v>17</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" ht="28.8">
       <c r="A76" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="14"/>
       <c r="C76" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D76" s="33">
         <v>17</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G76" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" ht="28.8">
       <c r="A77" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="14"/>
       <c r="C77" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="33">
         <v>17</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" ht="28.8">
       <c r="A78" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="14"/>
       <c r="C78" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" s="33">
         <v>17</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" ht="43.2">
       <c r="A79" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D79" s="33">
         <v>50</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="16"/>
@@ -3439,17 +3471,17 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="14"/>
       <c r="C80" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="33">
         <v>3</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F80" s="23"/>
       <c r="G80" s="16"/>
@@ -3457,61 +3489,61 @@
     </row>
     <row r="81" spans="1:8" ht="28.8">
       <c r="A81" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D81" s="33">
         <v>8</v>
       </c>
       <c r="E81" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F81" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G81" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" ht="28.8">
       <c r="A82" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="33">
         <v>8</v>
       </c>
       <c r="E82" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F82" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G82" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B83" s="14"/>
       <c r="C83" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D83" s="33">
         <v>15</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="16"/>
@@ -3519,221 +3551,221 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B84" s="14"/>
       <c r="C84" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" s="33">
         <v>15</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="14"/>
       <c r="C85" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" s="33">
         <v>3</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86" s="14"/>
       <c r="C86" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="33">
         <v>3</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" ht="75.75" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="33">
         <v>17</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" ht="28.8">
       <c r="A88" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D88" s="33">
         <v>50</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" ht="43.2">
       <c r="A89" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" s="33">
         <v>50</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8" ht="28.8">
       <c r="A90" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B90" s="14"/>
       <c r="C90" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" s="33">
         <v>8</v>
       </c>
       <c r="E90" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F90" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G90" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" ht="28.8">
       <c r="A91" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B91" s="14"/>
       <c r="C91" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" s="33">
         <v>17</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8" ht="28.8">
       <c r="A92" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D92" s="33">
         <v>8</v>
       </c>
       <c r="E92" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F92" s="14" t="s">
-        <v>150</v>
-      </c>
       <c r="G92" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" s="33">
         <v>15</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="16"/>
@@ -3741,17 +3773,17 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" s="14"/>
       <c r="C94" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D94" s="33">
         <v>50</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="16"/>
@@ -3759,41 +3791,41 @@
     </row>
     <row r="95" spans="1:8" ht="28.8">
       <c r="A95" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" s="33">
         <v>17</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8" ht="28.8">
       <c r="A96" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D96" s="33">
         <v>25</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="16"/>
@@ -3801,19 +3833,19 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D97" s="33">
         <v>1</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="16"/>
@@ -3821,91 +3853,91 @@
     </row>
     <row r="98" spans="1:8" ht="28.8">
       <c r="A98" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="33">
         <v>3</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8" ht="28.8">
       <c r="A99" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" s="33">
         <v>3</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="1:8" ht="28.8">
       <c r="A100" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="33">
         <v>3</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="1:8" ht="28.8">
       <c r="A101" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="33">
         <v>3</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102" s="33">
         <v>3</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H102" s="2"/>
     </row>
@@ -4497,502 +4529,502 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="47" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="47" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Reporting_EntityId" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1570,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1711,7 +1711,7 @@
         <v>304</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16944" windowHeight="4620"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="3345"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
     <sheet name="MasterData" sheetId="1" r:id="rId2"/>
     <sheet name="Reporting_EntityId" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:I14"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="306">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -937,12 +936,15 @@
   </si>
   <si>
     <t>All_Files</t>
+  </si>
+  <si>
+    <t>Json_File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1054,7 +1056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1177,13 +1179,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1286,6 +1299,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -1348,7 +1362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1383,7 +1397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1560,24 +1574,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.109375" customWidth="1"/>
+    <col min="3" max="3" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1698,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" customFormat="1">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>301</v>
       </c>
@@ -1706,12 +1720,20 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:3" customFormat="1">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>12</v>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1741,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11 B13 B14 B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11 B13 B14 B16 B17">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
@@ -1738,23 +1760,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="20" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="52.6640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1863,7 +1885,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="28.8">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1929,7 +1951,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="43.2">
+    <row r="9" spans="1:8" ht="60">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1949,7 +1971,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="43.2">
+    <row r="10" spans="1:8" ht="45">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -1991,7 +2013,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="72">
+    <row r="12" spans="1:8" ht="75">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2033,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2031,7 +2053,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="28.8">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -2051,7 +2073,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="43.2">
+    <row r="15" spans="1:8" ht="45">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
@@ -2075,7 +2097,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
@@ -2137,7 +2159,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" ht="41.4">
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="39">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -2195,7 +2217,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="28.8">
+    <row r="22" spans="1:8" ht="30">
       <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
@@ -2263,7 +2285,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="28.8">
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
@@ -2285,7 +2307,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="28.8">
+    <row r="26" spans="1:8" ht="30">
       <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
@@ -2309,7 +2331,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8">
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
@@ -2333,7 +2355,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="100.8">
+    <row r="28" spans="1:8" ht="105">
       <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
@@ -2373,7 +2395,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="28.8">
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="11" t="s">
         <v>45</v>
       </c>
@@ -2461,7 +2483,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="28.8">
+    <row r="34" spans="1:8" ht="30">
       <c r="A34" s="11" t="s">
         <v>49</v>
       </c>
@@ -2505,7 +2527,7 @@
       <c r="G35" s="16"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="28.8">
+    <row r="36" spans="1:8" ht="30">
       <c r="A36" s="11" t="s">
         <v>51</v>
       </c>
@@ -2547,7 +2569,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="28.8">
+    <row r="38" spans="1:8" ht="30">
       <c r="A38" s="11" t="s">
         <v>53</v>
       </c>
@@ -2637,7 +2659,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="28.8">
+    <row r="42" spans="1:8" ht="30">
       <c r="A42" s="11" t="s">
         <v>57</v>
       </c>
@@ -2659,7 +2681,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="28.8">
+    <row r="43" spans="1:8" ht="30">
       <c r="A43" s="11" t="s">
         <v>58</v>
       </c>
@@ -2721,7 +2743,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="27.6">
+    <row r="46" spans="1:8" ht="26.25">
       <c r="A46" s="11" t="s">
         <v>61</v>
       </c>
@@ -2743,7 +2765,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="27.6">
+    <row r="47" spans="1:8" ht="26.25">
       <c r="A47" s="11" t="s">
         <v>62</v>
       </c>
@@ -2861,7 +2883,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="28.8">
+    <row r="52" spans="1:8" ht="30">
       <c r="A52" s="11" t="s">
         <v>67</v>
       </c>
@@ -2883,7 +2905,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="28.8">
+    <row r="53" spans="1:8" ht="30">
       <c r="A53" s="11" t="s">
         <v>68</v>
       </c>
@@ -2905,7 +2927,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="28.8">
+    <row r="54" spans="1:8" ht="30">
       <c r="A54" s="11" t="s">
         <v>69</v>
       </c>
@@ -2949,7 +2971,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="28.8">
+    <row r="56" spans="1:8" ht="30">
       <c r="A56" s="11" t="s">
         <v>71</v>
       </c>
@@ -2993,7 +3015,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="28.8">
+    <row r="58" spans="1:8" ht="30">
       <c r="A58" s="11" t="s">
         <v>73</v>
       </c>
@@ -3037,7 +3059,7 @@
       <c r="G59" s="16"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="28.8">
+    <row r="60" spans="1:8" ht="45">
       <c r="A60" s="11" t="s">
         <v>75</v>
       </c>
@@ -3057,7 +3079,7 @@
       <c r="G60" s="16"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="28.8">
+    <row r="61" spans="1:8" ht="30">
       <c r="A61" s="11" t="s">
         <v>76</v>
       </c>
@@ -3079,7 +3101,7 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="28.8">
+    <row r="62" spans="1:8" ht="30">
       <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
@@ -3101,7 +3123,7 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="28.8">
+    <row r="63" spans="1:8" ht="30">
       <c r="A63" s="11" t="s">
         <v>78</v>
       </c>
@@ -3123,7 +3145,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="28.8">
+    <row r="64" spans="1:8" ht="30">
       <c r="A64" s="13" t="s">
         <v>79</v>
       </c>
@@ -3145,7 +3167,7 @@
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="28.8">
+    <row r="65" spans="1:8" ht="30">
       <c r="A65" s="14" t="s">
         <v>80</v>
       </c>
@@ -3189,7 +3211,7 @@
       </c>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="28.8">
+    <row r="67" spans="1:8" ht="30">
       <c r="A67" s="14" t="s">
         <v>82</v>
       </c>
@@ -3211,7 +3233,7 @@
       </c>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="28.8">
+    <row r="68" spans="1:8" ht="30">
       <c r="A68" s="15" t="s">
         <v>83</v>
       </c>
@@ -3233,7 +3255,7 @@
       </c>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="28.8">
+    <row r="69" spans="1:8" ht="30">
       <c r="A69" s="11" t="s">
         <v>84</v>
       </c>
@@ -3297,7 +3319,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="28.8">
+    <row r="72" spans="1:8" ht="30">
       <c r="A72" s="11" t="s">
         <v>87</v>
       </c>
@@ -3319,7 +3341,7 @@
       </c>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="28.8">
+    <row r="73" spans="1:8" ht="30">
       <c r="A73" s="11" t="s">
         <v>88</v>
       </c>
@@ -3339,7 +3361,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="28.8">
+    <row r="74" spans="1:8" ht="30">
       <c r="A74" s="11" t="s">
         <v>89</v>
       </c>
@@ -3361,7 +3383,7 @@
       </c>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="28.8">
+    <row r="75" spans="1:8" ht="30">
       <c r="A75" s="11" t="s">
         <v>90</v>
       </c>
@@ -3383,7 +3405,7 @@
       </c>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="28.8">
+    <row r="76" spans="1:8" ht="30">
       <c r="A76" s="11" t="s">
         <v>91</v>
       </c>
@@ -3405,7 +3427,7 @@
       </c>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="28.8">
+    <row r="77" spans="1:8" ht="30">
       <c r="A77" s="11" t="s">
         <v>92</v>
       </c>
@@ -3427,7 +3449,7 @@
       </c>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="28.8">
+    <row r="78" spans="1:8" ht="30">
       <c r="A78" s="11" t="s">
         <v>93</v>
       </c>
@@ -3449,7 +3471,7 @@
       </c>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="43.2">
+    <row r="79" spans="1:8" ht="45">
       <c r="A79" s="11" t="s">
         <v>94</v>
       </c>
@@ -3487,7 +3509,7 @@
       <c r="G80" s="16"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="28.8">
+    <row r="81" spans="1:8" ht="30">
       <c r="A81" s="11" t="s">
         <v>96</v>
       </c>
@@ -3509,7 +3531,7 @@
       </c>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="28.8">
+    <row r="82" spans="1:8" ht="30">
       <c r="A82" s="11" t="s">
         <v>97</v>
       </c>
@@ -3639,7 +3661,7 @@
       </c>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="28.8">
+    <row r="88" spans="1:8" ht="45">
       <c r="A88" s="11" t="s">
         <v>103</v>
       </c>
@@ -3663,7 +3685,7 @@
       </c>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="43.2">
+    <row r="89" spans="1:8" ht="45">
       <c r="A89" s="11" t="s">
         <v>104</v>
       </c>
@@ -3687,7 +3709,7 @@
       </c>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="28.8">
+    <row r="90" spans="1:8" ht="30">
       <c r="A90" s="11" t="s">
         <v>105</v>
       </c>
@@ -3709,7 +3731,7 @@
       </c>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="28.8">
+    <row r="91" spans="1:8" ht="30">
       <c r="A91" s="11" t="s">
         <v>106</v>
       </c>
@@ -3731,7 +3753,7 @@
       </c>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="28.8">
+    <row r="92" spans="1:8" ht="30">
       <c r="A92" s="11" t="s">
         <v>107</v>
       </c>
@@ -3789,7 +3811,7 @@
       <c r="G94" s="16"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="28.8">
+    <row r="95" spans="1:8" ht="30">
       <c r="A95" s="11" t="s">
         <v>110</v>
       </c>
@@ -3811,7 +3833,7 @@
       </c>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="28.8">
+    <row r="96" spans="1:8" ht="30">
       <c r="A96" s="11" t="s">
         <v>111</v>
       </c>
@@ -3851,7 +3873,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="28.8">
+    <row r="98" spans="1:8" ht="30">
       <c r="A98" s="16" t="s">
         <v>113</v>
       </c>
@@ -3869,7 +3891,7 @@
       </c>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" ht="28.8">
+    <row r="99" spans="1:8" ht="30">
       <c r="A99" s="16" t="s">
         <v>114</v>
       </c>
@@ -3887,7 +3909,7 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" ht="28.8">
+    <row r="100" spans="1:8" ht="45">
       <c r="A100" s="16" t="s">
         <v>115</v>
       </c>
@@ -3905,7 +3927,7 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="28.8">
+    <row r="101" spans="1:8" ht="45">
       <c r="A101" s="16" t="s">
         <v>116</v>
       </c>
@@ -4515,16 +4537,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\FakeDataCreate\FakeDataCreate\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="3345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13056" windowHeight="3732"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
     <sheet name="MasterData" sheetId="1" r:id="rId2"/>
     <sheet name="Reporting_EntityId" sheetId="3" r:id="rId3"/>
+    <sheet name="BankMapping" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="331">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -920,31 +926,106 @@
     <t>Shuffled_Header</t>
   </si>
   <si>
+    <t>DuplicateFile_generation</t>
+  </si>
+  <si>
+    <t>Number_of_duplicatedata</t>
+  </si>
+  <si>
+    <t>All_Files</t>
+  </si>
+  <si>
+    <t>Json_File</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Data suffling</t>
+  </si>
+  <si>
+    <t>header suffling</t>
+  </si>
+  <si>
+    <t>duplicate data generation</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>HDF</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>AXI</t>
+  </si>
+  <si>
+    <t>ICICI</t>
+  </si>
+  <si>
+    <t>ICI</t>
+  </si>
+  <si>
+    <t>Bank_Type</t>
+  </si>
+  <si>
+    <t>MultipleDataGenerationForContract</t>
+  </si>
+  <si>
+    <t>No_individual_counterpartyId_repeated_incontractFile</t>
+  </si>
+  <si>
+    <t>TotalNo_counterpartyId_repeated_incontractFile</t>
+  </si>
+  <si>
+    <t>No_individual_contractid,instrumentid_repeated_inprotectioninstrument</t>
+  </si>
+  <si>
+    <t>TotalNo_contractid,instrumentid_repeated_inprotectioninstrument</t>
+  </si>
+  <si>
+    <t>MultipleDataGenerationFor_protectioninstrument</t>
+  </si>
+  <si>
+    <t>MultipleDataGenerationFor_counterpartyRating</t>
+  </si>
+  <si>
+    <t>TotalNo_counterpartyId_repeated_counterpartyRatingFile</t>
+  </si>
+  <si>
+    <t>No_individual_counterpartyId_repeated_incounterpartyRatingFile</t>
+  </si>
+  <si>
+    <t>MultipleDataGenerationFor_RelatedParty</t>
+  </si>
+  <si>
+    <t>TotalNo_counterpartyId_repeated_RelatedPartyFile</t>
+  </si>
+  <si>
+    <t>No_individual_counterpartyId_repeated_inRelatedPartyFile</t>
+  </si>
+  <si>
     <t>Both</t>
   </si>
   <si>
-    <t>DuplicateFile_generation</t>
-  </si>
-  <si>
-    <t>Number_of_duplicatedata</t>
-  </si>
-  <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>All_Files</t>
-  </si>
-  <si>
-    <t>Json_File</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1196,7 +1277,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1299,6 +1380,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1574,24 +1656,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="1" max="1" width="71.5546875" customWidth="1"/>
+    <col min="3" max="3" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1607,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1657,6 +1739,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
@@ -1693,7 +1778,7 @@
         <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1703,37 +1788,147 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>305</v>
+      <c r="A17" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B17" s="50" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1936,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11 B13 B14 B16 B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B11 B13:B14 B16:B17 B21 B18 B24 B27">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
@@ -1756,27 +1951,39 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>BankMapping!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="20" style="23" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" style="23" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1885,7 +2092,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1951,7 +2158,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="60">
+    <row r="9" spans="1:8" ht="43.2">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +2178,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="45">
+    <row r="10" spans="1:8" ht="43.2">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
@@ -2013,7 +2220,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="75">
+    <row r="12" spans="1:8" ht="72">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -2033,7 +2240,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="45">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2260,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -2073,7 +2280,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="45">
+    <row r="15" spans="1:8" ht="43.2">
       <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +2304,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
@@ -2159,7 +2366,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="39" customFormat="1" ht="39">
+    <row r="19" spans="1:8" s="39" customFormat="1" ht="41.4">
       <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
@@ -2217,7 +2424,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="28.8">
       <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
@@ -2285,7 +2492,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="28.8">
       <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
@@ -2307,7 +2514,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:8" ht="28.8">
       <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
@@ -2331,7 +2538,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30">
+    <row r="27" spans="1:8" ht="28.8">
       <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
@@ -2355,7 +2562,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="105">
+    <row r="28" spans="1:8" ht="100.8">
       <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
@@ -2395,7 +2602,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="30">
+    <row r="30" spans="1:8" ht="28.8">
       <c r="A30" s="11" t="s">
         <v>45</v>
       </c>
@@ -2483,7 +2690,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="30">
+    <row r="34" spans="1:8" ht="28.8">
       <c r="A34" s="11" t="s">
         <v>49</v>
       </c>
@@ -2527,7 +2734,7 @@
       <c r="G35" s="16"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="30">
+    <row r="36" spans="1:8" ht="28.8">
       <c r="A36" s="11" t="s">
         <v>51</v>
       </c>
@@ -2569,7 +2776,7 @@
       <c r="G37" s="16"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="30">
+    <row r="38" spans="1:8" ht="28.8">
       <c r="A38" s="11" t="s">
         <v>53</v>
       </c>
@@ -2659,7 +2866,7 @@
       </c>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="30">
+    <row r="42" spans="1:8" ht="28.8">
       <c r="A42" s="11" t="s">
         <v>57</v>
       </c>
@@ -2681,7 +2888,7 @@
       </c>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="30">
+    <row r="43" spans="1:8" ht="28.8">
       <c r="A43" s="11" t="s">
         <v>58</v>
       </c>
@@ -2743,7 +2950,7 @@
       </c>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="26.25">
+    <row r="46" spans="1:8" ht="27.6">
       <c r="A46" s="11" t="s">
         <v>61</v>
       </c>
@@ -2765,7 +2972,7 @@
       </c>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="26.25">
+    <row r="47" spans="1:8" ht="27.6">
       <c r="A47" s="11" t="s">
         <v>62</v>
       </c>
@@ -2883,7 +3090,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="30">
+    <row r="52" spans="1:8" ht="28.8">
       <c r="A52" s="11" t="s">
         <v>67</v>
       </c>
@@ -2905,7 +3112,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="30">
+    <row r="53" spans="1:8" ht="28.8">
       <c r="A53" s="11" t="s">
         <v>68</v>
       </c>
@@ -2927,7 +3134,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:8" ht="28.8">
       <c r="A54" s="11" t="s">
         <v>69</v>
       </c>
@@ -2971,7 +3178,7 @@
       </c>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="28.8">
       <c r="A56" s="11" t="s">
         <v>71</v>
       </c>
@@ -3015,7 +3222,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="30">
+    <row r="58" spans="1:8" ht="28.8">
       <c r="A58" s="11" t="s">
         <v>73</v>
       </c>
@@ -3059,7 +3266,7 @@
       <c r="G59" s="16"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="45">
+    <row r="60" spans="1:8" ht="28.8">
       <c r="A60" s="11" t="s">
         <v>75</v>
       </c>
@@ -3079,7 +3286,7 @@
       <c r="G60" s="16"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="28.8">
       <c r="A61" s="11" t="s">
         <v>76</v>
       </c>
@@ -3101,7 +3308,7 @@
       </c>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:8" ht="28.8">
       <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
@@ -3123,7 +3330,7 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="30">
+    <row r="63" spans="1:8" ht="28.8">
       <c r="A63" s="11" t="s">
         <v>78</v>
       </c>
@@ -3145,7 +3352,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:8" ht="28.8">
       <c r="A64" s="13" t="s">
         <v>79</v>
       </c>
@@ -3167,7 +3374,7 @@
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="28.8">
       <c r="A65" s="14" t="s">
         <v>80</v>
       </c>
@@ -3211,7 +3418,7 @@
       </c>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="28.8">
       <c r="A67" s="14" t="s">
         <v>82</v>
       </c>
@@ -3233,7 +3440,7 @@
       </c>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="30">
+    <row r="68" spans="1:8" ht="28.8">
       <c r="A68" s="15" t="s">
         <v>83</v>
       </c>
@@ -3255,7 +3462,7 @@
       </c>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="30">
+    <row r="69" spans="1:8" ht="28.8">
       <c r="A69" s="11" t="s">
         <v>84</v>
       </c>
@@ -3319,7 +3526,7 @@
       <c r="G71" s="16"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="30">
+    <row r="72" spans="1:8" ht="28.8">
       <c r="A72" s="11" t="s">
         <v>87</v>
       </c>
@@ -3341,7 +3548,7 @@
       </c>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8" ht="28.8">
       <c r="A73" s="11" t="s">
         <v>88</v>
       </c>
@@ -3361,7 +3568,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="30">
+    <row r="74" spans="1:8" ht="28.8">
       <c r="A74" s="11" t="s">
         <v>89</v>
       </c>
@@ -3383,7 +3590,7 @@
       </c>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="30">
+    <row r="75" spans="1:8" ht="28.8">
       <c r="A75" s="11" t="s">
         <v>90</v>
       </c>
@@ -3405,7 +3612,7 @@
       </c>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="30">
+    <row r="76" spans="1:8" ht="28.8">
       <c r="A76" s="11" t="s">
         <v>91</v>
       </c>
@@ -3427,7 +3634,7 @@
       </c>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="30">
+    <row r="77" spans="1:8" ht="28.8">
       <c r="A77" s="11" t="s">
         <v>92</v>
       </c>
@@ -3449,7 +3656,7 @@
       </c>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="30">
+    <row r="78" spans="1:8" ht="28.8">
       <c r="A78" s="11" t="s">
         <v>93</v>
       </c>
@@ -3471,7 +3678,7 @@
       </c>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="45">
+    <row r="79" spans="1:8" ht="43.2">
       <c r="A79" s="11" t="s">
         <v>94</v>
       </c>
@@ -3509,7 +3716,7 @@
       <c r="G80" s="16"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="30">
+    <row r="81" spans="1:8" ht="28.8">
       <c r="A81" s="11" t="s">
         <v>96</v>
       </c>
@@ -3531,7 +3738,7 @@
       </c>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="30">
+    <row r="82" spans="1:8" ht="28.8">
       <c r="A82" s="11" t="s">
         <v>97</v>
       </c>
@@ -3661,7 +3868,7 @@
       </c>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="45">
+    <row r="88" spans="1:8" ht="28.8">
       <c r="A88" s="11" t="s">
         <v>103</v>
       </c>
@@ -3685,7 +3892,7 @@
       </c>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="45">
+    <row r="89" spans="1:8" ht="43.2">
       <c r="A89" s="11" t="s">
         <v>104</v>
       </c>
@@ -3709,7 +3916,7 @@
       </c>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="30">
+    <row r="90" spans="1:8" ht="28.8">
       <c r="A90" s="11" t="s">
         <v>105</v>
       </c>
@@ -3731,7 +3938,7 @@
       </c>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="30">
+    <row r="91" spans="1:8" ht="28.8">
       <c r="A91" s="11" t="s">
         <v>106</v>
       </c>
@@ -3753,7 +3960,7 @@
       </c>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="28.8">
       <c r="A92" s="11" t="s">
         <v>107</v>
       </c>
@@ -3811,7 +4018,7 @@
       <c r="G94" s="16"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="30">
+    <row r="95" spans="1:8" ht="28.8">
       <c r="A95" s="11" t="s">
         <v>110</v>
       </c>
@@ -3833,7 +4040,7 @@
       </c>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="30">
+    <row r="96" spans="1:8" ht="28.8">
       <c r="A96" s="11" t="s">
         <v>111</v>
       </c>
@@ -3873,7 +4080,7 @@
       <c r="G97" s="16"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="30">
+    <row r="98" spans="1:8" ht="28.8">
       <c r="A98" s="16" t="s">
         <v>113</v>
       </c>
@@ -3891,7 +4098,7 @@
       </c>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" ht="30">
+    <row r="99" spans="1:8" ht="28.8">
       <c r="A99" s="16" t="s">
         <v>114</v>
       </c>
@@ -3909,7 +4116,7 @@
       </c>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" ht="45">
+    <row r="100" spans="1:8" ht="28.8">
       <c r="A100" s="16" t="s">
         <v>115</v>
       </c>
@@ -3927,7 +4134,7 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="45">
+    <row r="101" spans="1:8" ht="28.8">
       <c r="A101" s="16" t="s">
         <v>116</v>
       </c>
@@ -4537,16 +4744,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -5053,4 +5260,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FakeDataCreate/resources/Configuration.xlsx
+++ b/FakeDataCreate/resources/Configuration.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\FakeDataCreate\FakeDataCreate\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13056" windowHeight="3732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16944" windowHeight="4488"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="2" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="BankMapping" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="331">
   <si>
     <t>Configuration Attributes</t>
   </si>
@@ -1016,16 +1012,16 @@
     <t>No_individual_counterpartyId_repeated_inRelatedPartyFile</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>indexes_of_skippedData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1444,7 +1440,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1479,7 +1475,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1664,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1689,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1778,7 +1774,7 @@
         <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>329</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1832,7 +1828,7 @@
         <v>317</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1840,7 +1836,7 @@
         <v>319</v>
       </c>
       <c r="B19" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1848,7 +1844,7 @@
         <v>318</v>
       </c>
       <c r="B20" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1856,7 +1852,7 @@
         <v>322</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1864,7 +1860,7 @@
         <v>321</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1872,7 +1868,7 @@
         <v>320</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1880,7 +1876,7 @@
         <v>323</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1888,7 +1884,7 @@
         <v>324</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1896,7 +1892,7 @@
         <v>325</v>
       </c>
       <c r="B26" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1904,7 +1900,7 @@
         <v>326</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1912,7 +1908,7 @@
         <v>327</v>
       </c>
       <c r="B28" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1920,15 +1916,23 @@
         <v>328</v>
       </c>
       <c r="B29" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="B30" t="s">
-        <v>310</v>
+      <c r="B30" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1970,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
